--- a/Documents/Testdata/Babsdataset.xlsx
+++ b/Documents/Testdata/Babsdataset.xlsx
@@ -401,7 +401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0#########"/>
+    <numFmt numFmtId="164" formatCode="0#########"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -474,7 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -906,116 +906,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1022584</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1186680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Afbeelding 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1584960" y="3215640"/>
-          <a:ext cx="824464" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1342356</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1171440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Afbeelding 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3870960" y="3200400"/>
-          <a:ext cx="1235676" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -1035,7 +925,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1090,7 +980,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1138,7 +1028,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1179,7 +1069,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1228,6 +1118,105 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
         </a:gradFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1014030</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1186680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Afbeelding 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1874520" y="3215640"/>
+          <a:ext cx="716850" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1331460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1201920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Afbeelding 15" descr="Afbeeldingsresultaat voor vrouwelijk profiel"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4206240" y="3230880"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1501,7 +1490,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2205,7 +2194,6 @@
         <v>16</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
